--- a/timesheet/T26TimeSheet_ChungWaiMan_AUG2023.xlsx
+++ b/timesheet/T26TimeSheet_ChungWaiMan_AUG2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Contract Ref.: GCIO 5/2 (T26)</t>
   </si>
@@ -152,12 +152,6 @@
   </si>
   <si>
     <t>(see Note 5)</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
   </si>
   <si>
     <t>Total</t>
@@ -1693,8 +1687,8 @@
         <v>1</v>
       </c>
       <c r="B20" s="55"/>
-      <c r="C20" s="56" t="s">
-        <v>42</v>
+      <c r="C20" s="56">
+        <v>1</v>
       </c>
       <c r="D20" s="56"/>
       <c r="E20" s="56">
@@ -1710,8 +1704,8 @@
         <v>0</v>
       </c>
       <c r="K20" s="56"/>
-      <c r="L20" s="56" t="s">
-        <v>43</v>
+      <c r="L20" s="56">
+        <v>0</v>
       </c>
       <c r="M20" s="56"/>
       <c r="N20" s="56">
@@ -1724,8 +1718,8 @@
         <v>2</v>
       </c>
       <c r="B21" s="55"/>
-      <c r="C21" s="56" t="s">
-        <v>42</v>
+      <c r="C21" s="56">
+        <v>0</v>
       </c>
       <c r="D21" s="56"/>
       <c r="E21" s="56">
@@ -1738,11 +1732,11 @@
       </c>
       <c r="I21" s="56"/>
       <c r="J21" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="56"/>
-      <c r="L21" s="56" t="s">
-        <v>43</v>
+      <c r="L21" s="56">
+        <v>0</v>
       </c>
       <c r="M21" s="56"/>
       <c r="N21" s="56">
@@ -1755,8 +1749,8 @@
         <v>3</v>
       </c>
       <c r="B22" s="55"/>
-      <c r="C22" s="56" t="s">
-        <v>43</v>
+      <c r="C22" s="56">
+        <v>0</v>
       </c>
       <c r="D22" s="56"/>
       <c r="E22" s="56">
@@ -1768,8 +1762,8 @@
         <v>0</v>
       </c>
       <c r="I22" s="56"/>
-      <c r="J22" s="56" t="s">
-        <v>42</v>
+      <c r="J22" s="56">
+        <v>1</v>
       </c>
       <c r="K22" s="56"/>
       <c r="L22" s="56">
@@ -1786,8 +1780,8 @@
         <v>4</v>
       </c>
       <c r="B23" s="55"/>
-      <c r="C23" s="56" t="s">
-        <v>43</v>
+      <c r="C23" s="56">
+        <v>0</v>
       </c>
       <c r="D23" s="56"/>
       <c r="E23" s="56">
@@ -1799,8 +1793,8 @@
         <v>0</v>
       </c>
       <c r="I23" s="56"/>
-      <c r="J23" s="56" t="s">
-        <v>42</v>
+      <c r="J23" s="56">
+        <v>1</v>
       </c>
       <c r="K23" s="56"/>
       <c r="L23" s="56">
@@ -1817,8 +1811,8 @@
         <v>5</v>
       </c>
       <c r="B24" s="55"/>
-      <c r="C24" s="56" t="s">
-        <v>43</v>
+      <c r="C24" s="56">
+        <v>0</v>
       </c>
       <c r="D24" s="56"/>
       <c r="E24" s="56">
@@ -1831,11 +1825,11 @@
       </c>
       <c r="I24" s="56"/>
       <c r="J24" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="56"/>
-      <c r="L24" s="56" t="s">
-        <v>42</v>
+      <c r="L24" s="56">
+        <v>0</v>
       </c>
       <c r="M24" s="56"/>
       <c r="N24" s="56">
@@ -1848,8 +1842,8 @@
         <v>6</v>
       </c>
       <c r="B25" s="55"/>
-      <c r="C25" s="56" t="s">
-        <v>43</v>
+      <c r="C25" s="56">
+        <v>0</v>
       </c>
       <c r="D25" s="56"/>
       <c r="E25" s="56">
@@ -1862,11 +1856,11 @@
       </c>
       <c r="I25" s="56"/>
       <c r="J25" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="56"/>
-      <c r="L25" s="56" t="s">
-        <v>42</v>
+      <c r="L25" s="56">
+        <v>0</v>
       </c>
       <c r="M25" s="56"/>
       <c r="N25" s="56">
@@ -1879,8 +1873,8 @@
         <v>7</v>
       </c>
       <c r="B26" s="55"/>
-      <c r="C26" s="56" t="s">
-        <v>43</v>
+      <c r="C26" s="56">
+        <v>0</v>
       </c>
       <c r="D26" s="56"/>
       <c r="E26" s="56">
@@ -1892,12 +1886,12 @@
         <v>0</v>
       </c>
       <c r="I26" s="56"/>
-      <c r="J26" s="56" t="s">
-        <v>42</v>
+      <c r="J26" s="56">
+        <v>0</v>
       </c>
       <c r="K26" s="56"/>
       <c r="L26" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="56"/>
       <c r="N26" s="56">
@@ -1910,8 +1904,8 @@
         <v>8</v>
       </c>
       <c r="B27" s="55"/>
-      <c r="C27" s="56" t="s">
-        <v>43</v>
+      <c r="C27" s="56">
+        <v>0</v>
       </c>
       <c r="D27" s="56"/>
       <c r="E27" s="56">
@@ -1923,12 +1917,12 @@
         <v>0</v>
       </c>
       <c r="I27" s="56"/>
-      <c r="J27" s="56" t="s">
-        <v>42</v>
+      <c r="J27" s="56">
+        <v>0</v>
       </c>
       <c r="K27" s="56"/>
       <c r="L27" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="56"/>
       <c r="N27" s="56">
@@ -1941,8 +1935,8 @@
         <v>9</v>
       </c>
       <c r="B28" s="55"/>
-      <c r="C28" s="56" t="s">
-        <v>42</v>
+      <c r="C28" s="56">
+        <v>0</v>
       </c>
       <c r="D28" s="56"/>
       <c r="E28" s="56">
@@ -1958,8 +1952,8 @@
         <v>0</v>
       </c>
       <c r="K28" s="56"/>
-      <c r="L28" s="56" t="s">
-        <v>43</v>
+      <c r="L28" s="56">
+        <v>1</v>
       </c>
       <c r="M28" s="56"/>
       <c r="N28" s="56">
@@ -1972,8 +1966,8 @@
         <v>10</v>
       </c>
       <c r="B29" s="55"/>
-      <c r="C29" s="56" t="s">
-        <v>42</v>
+      <c r="C29" s="56">
+        <v>0</v>
       </c>
       <c r="D29" s="56"/>
       <c r="E29" s="56">
@@ -1989,8 +1983,8 @@
         <v>0</v>
       </c>
       <c r="K29" s="56"/>
-      <c r="L29" s="56" t="s">
-        <v>43</v>
+      <c r="L29" s="56">
+        <v>1</v>
       </c>
       <c r="M29" s="56"/>
       <c r="N29" s="56">
@@ -2003,8 +1997,8 @@
         <v>11</v>
       </c>
       <c r="B30" s="55"/>
-      <c r="C30" s="56" t="s">
-        <v>42</v>
+      <c r="C30" s="56">
+        <v>0</v>
       </c>
       <c r="D30" s="56"/>
       <c r="E30" s="56">
@@ -2017,11 +2011,11 @@
       </c>
       <c r="I30" s="56"/>
       <c r="J30" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="56"/>
-      <c r="L30" s="56" t="s">
-        <v>43</v>
+      <c r="L30" s="56">
+        <v>0</v>
       </c>
       <c r="M30" s="56"/>
       <c r="N30" s="56">
@@ -2034,8 +2028,8 @@
         <v>12</v>
       </c>
       <c r="B31" s="55"/>
-      <c r="C31" s="56" t="s">
-        <v>43</v>
+      <c r="C31" s="56">
+        <v>0</v>
       </c>
       <c r="D31" s="56"/>
       <c r="E31" s="56">
@@ -2048,11 +2042,11 @@
       </c>
       <c r="I31" s="56"/>
       <c r="J31" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="56"/>
-      <c r="L31" s="56" t="s">
-        <v>42</v>
+      <c r="L31" s="56">
+        <v>0</v>
       </c>
       <c r="M31" s="56"/>
       <c r="N31" s="56">
@@ -2065,8 +2059,8 @@
         <v>13</v>
       </c>
       <c r="B32" s="55"/>
-      <c r="C32" s="56" t="s">
-        <v>43</v>
+      <c r="C32" s="56">
+        <v>0</v>
       </c>
       <c r="D32" s="56"/>
       <c r="E32" s="56">
@@ -2079,11 +2073,11 @@
       </c>
       <c r="I32" s="56"/>
       <c r="J32" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="56"/>
-      <c r="L32" s="56" t="s">
-        <v>42</v>
+      <c r="L32" s="56">
+        <v>0</v>
       </c>
       <c r="M32" s="56"/>
       <c r="N32" s="56">
@@ -2096,8 +2090,8 @@
         <v>14</v>
       </c>
       <c r="B33" s="55"/>
-      <c r="C33" s="56" t="s">
-        <v>42</v>
+      <c r="C33" s="56">
+        <v>0</v>
       </c>
       <c r="D33" s="56"/>
       <c r="E33" s="56">
@@ -2110,11 +2104,11 @@
       </c>
       <c r="I33" s="56"/>
       <c r="J33" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="56"/>
-      <c r="L33" s="56" t="s">
-        <v>43</v>
+      <c r="L33" s="56">
+        <v>0</v>
       </c>
       <c r="M33" s="56"/>
       <c r="N33" s="56">
@@ -2127,8 +2121,8 @@
         <v>15</v>
       </c>
       <c r="B34" s="55"/>
-      <c r="C34" s="56" t="s">
-        <v>42</v>
+      <c r="C34" s="56">
+        <v>0</v>
       </c>
       <c r="D34" s="56"/>
       <c r="E34" s="56">
@@ -2141,11 +2135,11 @@
       </c>
       <c r="I34" s="56"/>
       <c r="J34" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="56"/>
-      <c r="L34" s="56" t="s">
-        <v>43</v>
+      <c r="L34" s="56">
+        <v>0</v>
       </c>
       <c r="M34" s="56"/>
       <c r="N34" s="56">
@@ -2158,8 +2152,8 @@
         <v>16</v>
       </c>
       <c r="B35" s="55"/>
-      <c r="C35" s="56" t="s">
-        <v>42</v>
+      <c r="C35" s="56">
+        <v>0</v>
       </c>
       <c r="D35" s="56"/>
       <c r="E35" s="56">
@@ -2172,11 +2166,11 @@
       </c>
       <c r="I35" s="56"/>
       <c r="J35" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="56"/>
-      <c r="L35" s="56" t="s">
-        <v>43</v>
+      <c r="L35" s="56">
+        <v>0</v>
       </c>
       <c r="M35" s="56"/>
       <c r="N35" s="56">
@@ -2189,8 +2183,8 @@
         <v>17</v>
       </c>
       <c r="B36" s="55"/>
-      <c r="C36" s="56" t="s">
-        <v>42</v>
+      <c r="C36" s="56">
+        <v>0</v>
       </c>
       <c r="D36" s="56"/>
       <c r="E36" s="56">
@@ -2203,11 +2197,11 @@
       </c>
       <c r="I36" s="56"/>
       <c r="J36" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="56"/>
-      <c r="L36" s="56" t="s">
-        <v>43</v>
+      <c r="L36" s="56">
+        <v>0</v>
       </c>
       <c r="M36" s="56"/>
       <c r="N36" s="56">
@@ -2220,8 +2214,8 @@
         <v>18</v>
       </c>
       <c r="B37" s="55"/>
-      <c r="C37" s="56" t="s">
-        <v>42</v>
+      <c r="C37" s="56">
+        <v>0</v>
       </c>
       <c r="D37" s="56"/>
       <c r="E37" s="56">
@@ -2234,11 +2228,11 @@
       </c>
       <c r="I37" s="56"/>
       <c r="J37" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="56"/>
-      <c r="L37" s="56" t="s">
-        <v>43</v>
+      <c r="L37" s="56">
+        <v>0</v>
       </c>
       <c r="M37" s="56"/>
       <c r="N37" s="56">
@@ -2251,8 +2245,8 @@
         <v>19</v>
       </c>
       <c r="B38" s="55"/>
-      <c r="C38" s="56" t="s">
-        <v>43</v>
+      <c r="C38" s="56">
+        <v>0</v>
       </c>
       <c r="D38" s="56"/>
       <c r="E38" s="56">
@@ -2265,11 +2259,11 @@
       </c>
       <c r="I38" s="56"/>
       <c r="J38" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="56"/>
-      <c r="L38" s="56" t="s">
-        <v>42</v>
+      <c r="L38" s="56">
+        <v>0</v>
       </c>
       <c r="M38" s="56"/>
       <c r="N38" s="56">
@@ -2282,8 +2276,8 @@
         <v>20</v>
       </c>
       <c r="B39" s="55"/>
-      <c r="C39" s="56" t="s">
-        <v>43</v>
+      <c r="C39" s="56">
+        <v>0</v>
       </c>
       <c r="D39" s="56"/>
       <c r="E39" s="56">
@@ -2299,8 +2293,8 @@
         <v>0</v>
       </c>
       <c r="K39" s="56"/>
-      <c r="L39" s="56" t="s">
-        <v>42</v>
+      <c r="L39" s="56">
+        <v>1</v>
       </c>
       <c r="M39" s="56"/>
       <c r="N39" s="56">
@@ -2313,8 +2307,8 @@
         <v>21</v>
       </c>
       <c r="B40" s="55"/>
-      <c r="C40" s="56" t="s">
-        <v>42</v>
+      <c r="C40" s="56">
+        <v>0</v>
       </c>
       <c r="D40" s="56"/>
       <c r="E40" s="56">
@@ -2330,8 +2324,8 @@
         <v>0</v>
       </c>
       <c r="K40" s="56"/>
-      <c r="L40" s="56" t="s">
-        <v>43</v>
+      <c r="L40" s="56">
+        <v>1</v>
       </c>
       <c r="M40" s="56"/>
       <c r="N40" s="56">
@@ -2344,8 +2338,8 @@
         <v>22</v>
       </c>
       <c r="B41" s="55"/>
-      <c r="C41" s="56" t="s">
-        <v>42</v>
+      <c r="C41" s="56">
+        <v>0</v>
       </c>
       <c r="D41" s="56"/>
       <c r="E41" s="56">
@@ -2361,8 +2355,8 @@
         <v>0</v>
       </c>
       <c r="K41" s="56"/>
-      <c r="L41" s="56" t="s">
-        <v>43</v>
+      <c r="L41" s="56">
+        <v>1</v>
       </c>
       <c r="M41" s="56"/>
       <c r="N41" s="56">
@@ -2375,8 +2369,8 @@
         <v>23</v>
       </c>
       <c r="B42" s="55"/>
-      <c r="C42" s="56" t="s">
-        <v>42</v>
+      <c r="C42" s="56">
+        <v>0</v>
       </c>
       <c r="D42" s="56"/>
       <c r="E42" s="56">
@@ -2392,8 +2386,8 @@
         <v>0</v>
       </c>
       <c r="K42" s="56"/>
-      <c r="L42" s="56" t="s">
-        <v>43</v>
+      <c r="L42" s="56">
+        <v>1</v>
       </c>
       <c r="M42" s="56"/>
       <c r="N42" s="56">
@@ -2406,8 +2400,8 @@
         <v>24</v>
       </c>
       <c r="B43" s="55"/>
-      <c r="C43" s="56" t="s">
-        <v>42</v>
+      <c r="C43" s="56">
+        <v>0</v>
       </c>
       <c r="D43" s="56"/>
       <c r="E43" s="56">
@@ -2420,11 +2414,11 @@
       </c>
       <c r="I43" s="56"/>
       <c r="J43" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="56"/>
-      <c r="L43" s="56" t="s">
-        <v>43</v>
+      <c r="L43" s="56">
+        <v>0</v>
       </c>
       <c r="M43" s="56"/>
       <c r="N43" s="56">
@@ -2437,8 +2431,8 @@
         <v>25</v>
       </c>
       <c r="B44" s="55"/>
-      <c r="C44" s="56" t="s">
-        <v>42</v>
+      <c r="C44" s="56">
+        <v>0</v>
       </c>
       <c r="D44" s="56"/>
       <c r="E44" s="56">
@@ -2451,11 +2445,11 @@
       </c>
       <c r="I44" s="56"/>
       <c r="J44" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="56"/>
-      <c r="L44" s="56" t="s">
-        <v>43</v>
+      <c r="L44" s="56">
+        <v>0</v>
       </c>
       <c r="M44" s="56"/>
       <c r="N44" s="56">
@@ -2468,8 +2462,8 @@
         <v>26</v>
       </c>
       <c r="B45" s="55"/>
-      <c r="C45" s="56" t="s">
-        <v>43</v>
+      <c r="C45" s="56">
+        <v>0</v>
       </c>
       <c r="D45" s="56"/>
       <c r="E45" s="56">
@@ -2482,11 +2476,11 @@
       </c>
       <c r="I45" s="56"/>
       <c r="J45" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="56"/>
-      <c r="L45" s="56" t="s">
-        <v>42</v>
+      <c r="L45" s="56">
+        <v>0</v>
       </c>
       <c r="M45" s="56"/>
       <c r="N45" s="56">
@@ -2499,8 +2493,8 @@
         <v>27</v>
       </c>
       <c r="B46" s="55"/>
-      <c r="C46" s="56" t="s">
-        <v>43</v>
+      <c r="C46" s="56">
+        <v>0</v>
       </c>
       <c r="D46" s="56"/>
       <c r="E46" s="56">
@@ -2513,11 +2507,11 @@
       </c>
       <c r="I46" s="56"/>
       <c r="J46" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="56"/>
-      <c r="L46" s="56" t="s">
-        <v>42</v>
+      <c r="L46" s="56">
+        <v>0</v>
       </c>
       <c r="M46" s="56"/>
       <c r="N46" s="56">
@@ -2530,8 +2524,8 @@
         <v>28</v>
       </c>
       <c r="B47" s="55"/>
-      <c r="C47" s="56" t="s">
-        <v>42</v>
+      <c r="C47" s="56">
+        <v>0</v>
       </c>
       <c r="D47" s="56"/>
       <c r="E47" s="56">
@@ -2544,11 +2538,11 @@
       </c>
       <c r="I47" s="56"/>
       <c r="J47" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="56"/>
-      <c r="L47" s="56" t="s">
-        <v>43</v>
+      <c r="L47" s="56">
+        <v>0</v>
       </c>
       <c r="M47" s="56"/>
       <c r="N47" s="56">
@@ -2561,8 +2555,8 @@
         <v>29</v>
       </c>
       <c r="B48" s="55"/>
-      <c r="C48" s="56" t="s">
-        <v>42</v>
+      <c r="C48" s="56">
+        <v>0</v>
       </c>
       <c r="D48" s="56"/>
       <c r="E48" s="56">
@@ -2575,11 +2569,11 @@
       </c>
       <c r="I48" s="56"/>
       <c r="J48" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="56"/>
-      <c r="L48" s="56" t="s">
-        <v>43</v>
+      <c r="L48" s="56">
+        <v>0</v>
       </c>
       <c r="M48" s="56"/>
       <c r="N48" s="56">
@@ -2592,8 +2586,8 @@
         <v>30</v>
       </c>
       <c r="B49" s="55"/>
-      <c r="C49" s="56" t="s">
-        <v>42</v>
+      <c r="C49" s="56">
+        <v>0</v>
       </c>
       <c r="D49" s="56"/>
       <c r="E49" s="56">
@@ -2606,11 +2600,11 @@
       </c>
       <c r="I49" s="56"/>
       <c r="J49" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="56"/>
-      <c r="L49" s="56" t="s">
-        <v>43</v>
+      <c r="L49" s="56">
+        <v>0</v>
       </c>
       <c r="M49" s="56"/>
       <c r="N49" s="56">
@@ -2623,8 +2617,8 @@
         <v>31</v>
       </c>
       <c r="B50" s="55"/>
-      <c r="C50" s="56" t="s">
-        <v>42</v>
+      <c r="C50" s="56">
+        <v>0</v>
       </c>
       <c r="D50" s="56"/>
       <c r="E50" s="56">
@@ -2637,11 +2631,11 @@
       </c>
       <c r="I50" s="57"/>
       <c r="J50" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="57"/>
-      <c r="L50" s="57" t="s">
-        <v>43</v>
+      <c r="L50" s="57">
+        <v>0</v>
       </c>
       <c r="M50" s="57"/>
       <c r="N50" s="57">
@@ -2651,11 +2645,11 @@
     </row>
     <row r="51" ht="21.75" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B51" s="59"/>
       <c r="C51" s="56">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D51" s="55"/>
       <c r="E51" s="56">
@@ -2675,7 +2669,7 @@
     </row>
     <row r="52" ht="12.75" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B52" s="64"/>
       <c r="C52" s="64"/>
@@ -2713,13 +2707,13 @@
     </row>
     <row r="54" ht="15.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="81" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B54" s="82"/>
       <c r="C54" s="82"/>
       <c r="D54" s="83"/>
       <c r="F54" s="84" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G54" s="85"/>
       <c r="H54" s="85"/>
@@ -2733,13 +2727,13 @@
     </row>
     <row r="55" ht="15.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="87" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B55" s="88"/>
       <c r="C55" s="88"/>
       <c r="D55" s="89"/>
       <c r="F55" s="90" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G55" s="90"/>
       <c r="H55" s="90"/>
@@ -2773,7 +2767,7 @@
       <c r="C57" s="88"/>
       <c r="D57" s="89"/>
       <c r="F57" s="84" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G57" s="85"/>
       <c r="H57" s="85"/>
@@ -2787,7 +2781,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="93" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B58" s="94"/>
       <c r="C58" s="94"/>
@@ -2825,7 +2819,7 @@
     </row>
     <row r="60" ht="15.75" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -2844,7 +2838,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B61" s="105"/>
       <c r="C61" s="105"/>
@@ -2863,10 +2857,10 @@
     </row>
     <row r="62" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="107" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B62" s="108" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C62" s="109"/>
       <c r="D62" s="109"/>
@@ -2884,10 +2878,10 @@
     </row>
     <row r="63" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="87" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B63" s="111" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C63" s="112"/>
       <c r="D63" s="112"/>
@@ -2939,10 +2933,10 @@
     </row>
     <row r="66" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="87" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B66" s="115" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C66" s="115"/>
       <c r="D66" s="115"/>
@@ -2960,10 +2954,10 @@
     </row>
     <row r="67" ht="12.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="87" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B67" s="111" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C67" s="111"/>
       <c r="D67" s="111"/>
@@ -2998,10 +2992,10 @@
     </row>
     <row r="69" ht="12.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="87" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B69" s="118" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C69" s="119"/>
       <c r="D69" s="119"/>
@@ -3019,10 +3013,10 @@
     </row>
     <row r="70" ht="12.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="87" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B70" s="121" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C70" s="121"/>
       <c r="D70" s="121"/>
@@ -3074,7 +3068,7 @@
     </row>
     <row r="74" ht="12.95" customHeight="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="126" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/timesheet/T26TimeSheet_ChungWaiMan_AUG2023.xlsx
+++ b/timesheet/T26TimeSheet_ChungWaiMan_AUG2023.xlsx
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B21" s="55"/>
       <c r="C21" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="56"/>
       <c r="E21" s="56">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="I21" s="56"/>
       <c r="J21" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="56"/>
       <c r="L21" s="56">
@@ -1825,11 +1825,11 @@
       </c>
       <c r="I24" s="56"/>
       <c r="J24" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="56"/>
       <c r="L24" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="56"/>
       <c r="N24" s="56">
@@ -1856,11 +1856,11 @@
       </c>
       <c r="I25" s="56"/>
       <c r="J25" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="56"/>
       <c r="L25" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="56"/>
       <c r="N25" s="56">
@@ -1887,11 +1887,11 @@
       </c>
       <c r="I26" s="56"/>
       <c r="J26" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="56"/>
       <c r="L26" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="56"/>
       <c r="N26" s="56">
@@ -1918,11 +1918,11 @@
       </c>
       <c r="I27" s="56"/>
       <c r="J27" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="56"/>
       <c r="L27" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="56"/>
       <c r="N27" s="56">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="B28" s="55"/>
       <c r="C28" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="56"/>
       <c r="E28" s="56">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="K28" s="56"/>
       <c r="L28" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="56"/>
       <c r="N28" s="56">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="B29" s="55"/>
       <c r="C29" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="56"/>
       <c r="E29" s="56">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="K29" s="56"/>
       <c r="L29" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="56"/>
       <c r="N29" s="56">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B30" s="55"/>
       <c r="C30" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="56"/>
       <c r="E30" s="56">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="I30" s="56"/>
       <c r="J30" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="56"/>
       <c r="L30" s="56">
@@ -2042,11 +2042,11 @@
       </c>
       <c r="I31" s="56"/>
       <c r="J31" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="56"/>
       <c r="L31" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="56"/>
       <c r="N31" s="56">
@@ -2073,11 +2073,11 @@
       </c>
       <c r="I32" s="56"/>
       <c r="J32" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="56"/>
       <c r="L32" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="56"/>
       <c r="N32" s="56">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B33" s="55"/>
       <c r="C33" s="56">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D33" s="56"/>
       <c r="E33" s="56">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I33" s="56"/>
       <c r="J33" s="56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K33" s="56"/>
       <c r="L33" s="56">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="B34" s="55"/>
       <c r="C34" s="56">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D34" s="56"/>
       <c r="E34" s="56">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="I34" s="56"/>
       <c r="J34" s="56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K34" s="56"/>
       <c r="L34" s="56">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B35" s="55"/>
       <c r="C35" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="56"/>
       <c r="E35" s="56">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="I35" s="56"/>
       <c r="J35" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="56"/>
       <c r="L35" s="56">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B36" s="55"/>
       <c r="C36" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="56"/>
       <c r="E36" s="56">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="I36" s="56"/>
       <c r="J36" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="56"/>
       <c r="L36" s="56">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="B37" s="55"/>
       <c r="C37" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="56"/>
       <c r="E37" s="56">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="I37" s="56"/>
       <c r="J37" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="56"/>
       <c r="L37" s="56">
@@ -2259,11 +2259,11 @@
       </c>
       <c r="I38" s="56"/>
       <c r="J38" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="56"/>
       <c r="L38" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="56"/>
       <c r="N38" s="56">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="B40" s="55"/>
       <c r="C40" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="56"/>
       <c r="E40" s="56">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="K40" s="56"/>
       <c r="L40" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" s="56"/>
       <c r="N40" s="56">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="B41" s="55"/>
       <c r="C41" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="56"/>
       <c r="E41" s="56">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="K41" s="56"/>
       <c r="L41" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" s="56"/>
       <c r="N41" s="56">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B42" s="55"/>
       <c r="C42" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="56"/>
       <c r="E42" s="56">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="K42" s="56"/>
       <c r="L42" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="56"/>
       <c r="N42" s="56">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B43" s="55"/>
       <c r="C43" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="56"/>
       <c r="E43" s="56">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="I43" s="56"/>
       <c r="J43" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="56"/>
       <c r="L43" s="56">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="B44" s="55"/>
       <c r="C44" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="56"/>
       <c r="E44" s="56">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="I44" s="56"/>
       <c r="J44" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="56"/>
       <c r="L44" s="56">
@@ -2476,11 +2476,11 @@
       </c>
       <c r="I45" s="56"/>
       <c r="J45" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="56"/>
       <c r="L45" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="56"/>
       <c r="N45" s="56">
@@ -2507,11 +2507,11 @@
       </c>
       <c r="I46" s="56"/>
       <c r="J46" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="56"/>
       <c r="L46" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="56"/>
       <c r="N46" s="56">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B47" s="55"/>
       <c r="C47" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="56"/>
       <c r="E47" s="56">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="I47" s="56"/>
       <c r="J47" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="56"/>
       <c r="L47" s="56">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="B48" s="55"/>
       <c r="C48" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="56"/>
       <c r="E48" s="56">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I48" s="56"/>
       <c r="J48" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="56"/>
       <c r="L48" s="56">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B49" s="55"/>
       <c r="C49" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="56"/>
       <c r="E49" s="56">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="I49" s="56"/>
       <c r="J49" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="56"/>
       <c r="L49" s="56">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="B50" s="55"/>
       <c r="C50" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="56"/>
       <c r="E50" s="56">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="I50" s="57"/>
       <c r="J50" s="57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="57"/>
       <c r="L50" s="57">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B51" s="59"/>
       <c r="C51" s="56">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D51" s="55"/>
       <c r="E51" s="56">

--- a/timesheet/T26TimeSheet_ChungWaiMan_AUG2023.xlsx
+++ b/timesheet/T26TimeSheet_ChungWaiMan_AUG2023.xlsx
@@ -1967,7 +1967,7 @@
       </c>
       <c r="B29" s="55"/>
       <c r="C29" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="56"/>
       <c r="E29" s="56">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="I29" s="56"/>
       <c r="J29" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="56"/>
       <c r="L29" s="56">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B30" s="55"/>
       <c r="C30" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="56"/>
       <c r="E30" s="56">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="I30" s="56"/>
       <c r="J30" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="56"/>
       <c r="L30" s="56">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B33" s="55"/>
       <c r="C33" s="56">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D33" s="56"/>
       <c r="E33" s="56">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I33" s="56"/>
       <c r="J33" s="56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K33" s="56"/>
       <c r="L33" s="56">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="B34" s="55"/>
       <c r="C34" s="56">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D34" s="56"/>
       <c r="E34" s="56">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="I34" s="56"/>
       <c r="J34" s="56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K34" s="56"/>
       <c r="L34" s="56">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B51" s="59"/>
       <c r="C51" s="56">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D51" s="55"/>
       <c r="E51" s="56">

--- a/timesheet/T26TimeSheet_ChungWaiMan_AUG2023.xlsx
+++ b/timesheet/T26TimeSheet_ChungWaiMan_AUG2023.xlsx
@@ -1967,7 +1967,7 @@
       </c>
       <c r="B29" s="55"/>
       <c r="C29" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="56"/>
       <c r="E29" s="56">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="I29" s="56"/>
       <c r="J29" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="56"/>
       <c r="L29" s="56">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B30" s="55"/>
       <c r="C30" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="56"/>
       <c r="E30" s="56">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="I30" s="56"/>
       <c r="J30" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="56"/>
       <c r="L30" s="56">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B33" s="55"/>
       <c r="C33" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="56"/>
       <c r="E33" s="56">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="I33" s="56"/>
       <c r="J33" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="56"/>
       <c r="L33" s="56">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="B34" s="55"/>
       <c r="C34" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="56"/>
       <c r="E34" s="56">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="I34" s="56"/>
       <c r="J34" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="56"/>
       <c r="L34" s="56">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B51" s="59"/>
       <c r="C51" s="56">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D51" s="55"/>
       <c r="E51" s="56">

--- a/timesheet/T26TimeSheet_ChungWaiMan_AUG2023.xlsx
+++ b/timesheet/T26TimeSheet_ChungWaiMan_AUG2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="8670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Timesheet_AUG2023" state="visible" r:id="rId4"/>
@@ -246,7 +246,7 @@
     <numFmt numFmtId="166" formatCode="0.0_ "/>
     <numFmt numFmtId="167" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -277,12 +277,6 @@
       <b/>
       <family val="3"/>
       <sz val="11"/>
-      <name val="Courier New"/>
-    </font>
-    <font>
-      <u/>
-      <family val="3"/>
-      <sz val="10"/>
       <name val="Courier New"/>
     </font>
     <font>
@@ -523,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -574,15 +568,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -610,7 +595,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -631,10 +616,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -664,16 +649,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -692,13 +677,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -719,13 +704,13 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -746,13 +731,13 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -769,118 +754,118 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1249,10 +1234,10 @@
   <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.95" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="6.625" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.95" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="6.625" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="6.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
@@ -1535,21 +1520,21 @@
         <v>23</v>
       </c>
       <c r="J13" s="13"/>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="20"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="13"/>
     </row>
     <row r="14" ht="15.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -1558,28 +1543,28 @@
         <v>26</v>
       </c>
       <c r="J14" s="13"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="26"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="23"/>
     </row>
     <row r="15" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -1601,1221 +1586,1221 @@
       <c r="O16" s="7"/>
     </row>
     <row r="17" ht="12.95" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34" t="s">
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="36"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="33"/>
       <c r="P17" s="2"/>
     </row>
     <row r="18" ht="12.95" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="31" t="s">
+      <c r="G18" s="37"/>
+      <c r="H18" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="29" t="s">
+      <c r="I18" s="30"/>
+      <c r="J18" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="41"/>
-      <c r="L18" s="42" t="s">
+      <c r="K18" s="38"/>
+      <c r="L18" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="43"/>
-      <c r="N18" s="44" t="s">
+      <c r="M18" s="40"/>
+      <c r="N18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="45"/>
+      <c r="O18" s="42"/>
       <c r="P18" s="2"/>
     </row>
     <row r="19" ht="12.95" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="46" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48" t="s">
+      <c r="D19" s="44"/>
+      <c r="E19" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="51" t="s">
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="46" t="s">
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="47"/>
-      <c r="N19" s="48" t="s">
+      <c r="M19" s="44"/>
+      <c r="N19" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="O19" s="50"/>
+      <c r="O19" s="47"/>
       <c r="P19" s="2"/>
     </row>
     <row r="20" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="55">
+      <c r="A20" s="52">
         <v>1</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56">
+      <c r="B20" s="52"/>
+      <c r="C20" s="53">
         <v>1</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56">
-        <v>0</v>
-      </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56">
-        <v>0</v>
-      </c>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56">
-        <v>0</v>
-      </c>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56">
-        <v>0</v>
-      </c>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56">
-        <v>0</v>
-      </c>
-      <c r="O20" s="56"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53">
+        <v>0</v>
+      </c>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53">
+        <v>0</v>
+      </c>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53">
+        <v>0</v>
+      </c>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53">
+        <v>0</v>
+      </c>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53">
+        <v>0</v>
+      </c>
+      <c r="O20" s="53"/>
     </row>
     <row r="21" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="55">
+      <c r="A21" s="52">
         <v>2</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="56">
+      <c r="B21" s="52"/>
+      <c r="C21" s="53">
         <v>1</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56">
-        <v>0</v>
-      </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56">
-        <v>0</v>
-      </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56">
-        <v>0</v>
-      </c>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56">
-        <v>0</v>
-      </c>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56">
-        <v>0</v>
-      </c>
-      <c r="O21" s="56"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53">
+        <v>0</v>
+      </c>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53">
+        <v>0</v>
+      </c>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53">
+        <v>0</v>
+      </c>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53">
+        <v>0</v>
+      </c>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53">
+        <v>0</v>
+      </c>
+      <c r="O21" s="53"/>
     </row>
     <row r="22" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="55">
+      <c r="A22" s="52">
         <v>3</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56">
-        <v>0</v>
-      </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56">
-        <v>0</v>
-      </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56">
-        <v>0</v>
-      </c>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56">
+      <c r="B22" s="52"/>
+      <c r="C22" s="53">
+        <v>0</v>
+      </c>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53">
+        <v>0</v>
+      </c>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53">
+        <v>0</v>
+      </c>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53">
         <v>1</v>
       </c>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56">
-        <v>0</v>
-      </c>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56">
-        <v>0</v>
-      </c>
-      <c r="O22" s="56"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53">
+        <v>0</v>
+      </c>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53">
+        <v>0</v>
+      </c>
+      <c r="O22" s="53"/>
     </row>
     <row r="23" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="55">
+      <c r="A23" s="52">
         <v>4</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="56">
-        <v>0</v>
-      </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56">
-        <v>0</v>
-      </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56">
-        <v>0</v>
-      </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56">
+      <c r="B23" s="52"/>
+      <c r="C23" s="53">
+        <v>0</v>
+      </c>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53">
+        <v>0</v>
+      </c>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53">
+        <v>0</v>
+      </c>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53">
         <v>1</v>
       </c>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56">
-        <v>0</v>
-      </c>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56">
-        <v>0</v>
-      </c>
-      <c r="O23" s="56"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53">
+        <v>0</v>
+      </c>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53">
+        <v>0</v>
+      </c>
+      <c r="O23" s="53"/>
     </row>
     <row r="24" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="55">
+      <c r="A24" s="52">
         <v>5</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56">
-        <v>0</v>
-      </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56">
-        <v>0</v>
-      </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56">
-        <v>0</v>
-      </c>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56">
-        <v>0</v>
-      </c>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56">
+      <c r="B24" s="52"/>
+      <c r="C24" s="53">
+        <v>0</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53">
+        <v>0</v>
+      </c>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53">
+        <v>0</v>
+      </c>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53">
+        <v>0</v>
+      </c>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53">
         <v>1</v>
       </c>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56">
-        <v>0</v>
-      </c>
-      <c r="O24" s="56"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53">
+        <v>0</v>
+      </c>
+      <c r="O24" s="53"/>
     </row>
     <row r="25" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>6</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56">
-        <v>0</v>
-      </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56">
-        <v>0</v>
-      </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56">
-        <v>0</v>
-      </c>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56">
-        <v>0</v>
-      </c>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56">
+      <c r="B25" s="52"/>
+      <c r="C25" s="53">
+        <v>0</v>
+      </c>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53">
+        <v>0</v>
+      </c>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53">
+        <v>0</v>
+      </c>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53">
+        <v>0</v>
+      </c>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53">
         <v>1</v>
       </c>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56">
-        <v>0</v>
-      </c>
-      <c r="O25" s="56"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53">
+        <v>0</v>
+      </c>
+      <c r="O25" s="53"/>
     </row>
     <row r="26" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="55">
+      <c r="A26" s="52">
         <v>7</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="56">
-        <v>0</v>
-      </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56">
-        <v>0</v>
-      </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56">
-        <v>0</v>
-      </c>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56">
+      <c r="B26" s="52"/>
+      <c r="C26" s="53">
+        <v>0</v>
+      </c>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53">
+        <v>0</v>
+      </c>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53">
+        <v>0</v>
+      </c>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53">
         <v>1</v>
       </c>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56">
-        <v>0</v>
-      </c>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56">
-        <v>0</v>
-      </c>
-      <c r="O26" s="56"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53">
+        <v>0</v>
+      </c>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53">
+        <v>0</v>
+      </c>
+      <c r="O26" s="53"/>
     </row>
     <row r="27" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="55">
+      <c r="A27" s="52">
         <v>8</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56">
-        <v>0</v>
-      </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56">
-        <v>0</v>
-      </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56">
-        <v>0</v>
-      </c>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56">
+      <c r="B27" s="52"/>
+      <c r="C27" s="53">
+        <v>0</v>
+      </c>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53">
+        <v>0</v>
+      </c>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53">
+        <v>0</v>
+      </c>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53">
         <v>1</v>
       </c>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56">
-        <v>0</v>
-      </c>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56">
-        <v>0</v>
-      </c>
-      <c r="O27" s="56"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53">
+        <v>0</v>
+      </c>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53">
+        <v>0</v>
+      </c>
+      <c r="O27" s="53"/>
     </row>
     <row r="28" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="55">
+      <c r="A28" s="52">
         <v>9</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56">
+      <c r="B28" s="52"/>
+      <c r="C28" s="53">
         <v>1</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56">
-        <v>0</v>
-      </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56">
-        <v>0</v>
-      </c>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56">
-        <v>0</v>
-      </c>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56">
-        <v>0</v>
-      </c>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56">
-        <v>0</v>
-      </c>
-      <c r="O28" s="56"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53">
+        <v>0</v>
+      </c>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53">
+        <v>0</v>
+      </c>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53">
+        <v>0</v>
+      </c>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53">
+        <v>0</v>
+      </c>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53">
+        <v>0</v>
+      </c>
+      <c r="O28" s="53"/>
     </row>
     <row r="29" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="55">
+      <c r="A29" s="52">
         <v>10</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="56">
+      <c r="B29" s="52"/>
+      <c r="C29" s="53">
         <v>1</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56">
-        <v>0</v>
-      </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56">
-        <v>0</v>
-      </c>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56">
-        <v>0</v>
-      </c>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56">
-        <v>0</v>
-      </c>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56">
-        <v>0</v>
-      </c>
-      <c r="O29" s="56"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53">
+        <v>0</v>
+      </c>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53">
+        <v>0</v>
+      </c>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53">
+        <v>0</v>
+      </c>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53">
+        <v>0</v>
+      </c>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53">
+        <v>0</v>
+      </c>
+      <c r="O29" s="53"/>
     </row>
     <row r="30" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="55">
+      <c r="A30" s="52">
         <v>11</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="56">
+      <c r="B30" s="52"/>
+      <c r="C30" s="53">
         <v>1</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56">
-        <v>0</v>
-      </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56">
-        <v>0</v>
-      </c>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56">
-        <v>0</v>
-      </c>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56">
-        <v>0</v>
-      </c>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56">
-        <v>0</v>
-      </c>
-      <c r="O30" s="56"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53">
+        <v>0</v>
+      </c>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53">
+        <v>0</v>
+      </c>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53">
+        <v>0</v>
+      </c>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53">
+        <v>0</v>
+      </c>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53">
+        <v>0</v>
+      </c>
+      <c r="O30" s="53"/>
     </row>
     <row r="31" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="55">
+      <c r="A31" s="52">
         <v>12</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="56">
-        <v>0</v>
-      </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56">
-        <v>0</v>
-      </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56">
-        <v>0</v>
-      </c>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56">
-        <v>0</v>
-      </c>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56">
+      <c r="B31" s="52"/>
+      <c r="C31" s="53">
+        <v>0</v>
+      </c>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53">
+        <v>0</v>
+      </c>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53">
+        <v>0</v>
+      </c>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53">
+        <v>0</v>
+      </c>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53">
         <v>1</v>
       </c>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56">
-        <v>0</v>
-      </c>
-      <c r="O31" s="56"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53">
+        <v>0</v>
+      </c>
+      <c r="O31" s="53"/>
     </row>
     <row r="32" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="55">
+      <c r="A32" s="52">
         <v>13</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="56">
-        <v>0</v>
-      </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56">
-        <v>0</v>
-      </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56">
-        <v>0</v>
-      </c>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56">
-        <v>0</v>
-      </c>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56">
+      <c r="B32" s="52"/>
+      <c r="C32" s="53">
+        <v>0</v>
+      </c>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53">
+        <v>0</v>
+      </c>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53">
+        <v>0</v>
+      </c>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53">
+        <v>0</v>
+      </c>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53">
         <v>1</v>
       </c>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56">
-        <v>0</v>
-      </c>
-      <c r="O32" s="56"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53">
+        <v>0</v>
+      </c>
+      <c r="O32" s="53"/>
     </row>
     <row r="33" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="55">
+      <c r="A33" s="52">
         <v>14</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="56">
+      <c r="B33" s="52"/>
+      <c r="C33" s="53">
         <v>1</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56">
-        <v>0</v>
-      </c>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56">
-        <v>0</v>
-      </c>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56">
-        <v>0</v>
-      </c>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56">
-        <v>0</v>
-      </c>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56">
-        <v>0</v>
-      </c>
-      <c r="O33" s="56"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53">
+        <v>0</v>
+      </c>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53">
+        <v>0</v>
+      </c>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53">
+        <v>0</v>
+      </c>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53">
+        <v>0</v>
+      </c>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53">
+        <v>0</v>
+      </c>
+      <c r="O33" s="53"/>
     </row>
     <row r="34" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="55">
+      <c r="A34" s="52">
         <v>15</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="56">
+      <c r="B34" s="52"/>
+      <c r="C34" s="53">
         <v>1</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56">
-        <v>0</v>
-      </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56">
-        <v>0</v>
-      </c>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56">
-        <v>0</v>
-      </c>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56">
-        <v>0</v>
-      </c>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56">
-        <v>0</v>
-      </c>
-      <c r="O34" s="56"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53">
+        <v>0</v>
+      </c>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53">
+        <v>0</v>
+      </c>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53">
+        <v>0</v>
+      </c>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53">
+        <v>0</v>
+      </c>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53">
+        <v>0</v>
+      </c>
+      <c r="O34" s="53"/>
     </row>
     <row r="35" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="55">
+      <c r="A35" s="52">
         <v>16</v>
       </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="56">
+      <c r="B35" s="52"/>
+      <c r="C35" s="53">
         <v>1</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56">
-        <v>0</v>
-      </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56">
-        <v>0</v>
-      </c>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56">
-        <v>0</v>
-      </c>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56">
-        <v>0</v>
-      </c>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56">
-        <v>0</v>
-      </c>
-      <c r="O35" s="56"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53">
+        <v>0</v>
+      </c>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53">
+        <v>0</v>
+      </c>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53">
+        <v>0</v>
+      </c>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53">
+        <v>0</v>
+      </c>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53">
+        <v>0</v>
+      </c>
+      <c r="O35" s="53"/>
     </row>
     <row r="36" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="55">
+      <c r="A36" s="52">
         <v>17</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="56">
+      <c r="B36" s="52"/>
+      <c r="C36" s="53">
         <v>1</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56">
-        <v>0</v>
-      </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56">
-        <v>0</v>
-      </c>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56">
-        <v>0</v>
-      </c>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56">
-        <v>0</v>
-      </c>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56">
-        <v>0</v>
-      </c>
-      <c r="O36" s="56"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53">
+        <v>0</v>
+      </c>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53">
+        <v>0</v>
+      </c>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53">
+        <v>0</v>
+      </c>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53">
+        <v>0</v>
+      </c>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53">
+        <v>0</v>
+      </c>
+      <c r="O36" s="53"/>
     </row>
     <row r="37" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="55">
+      <c r="A37" s="52">
         <v>18</v>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="56">
+      <c r="B37" s="52"/>
+      <c r="C37" s="53">
         <v>1</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56">
-        <v>0</v>
-      </c>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56">
-        <v>0</v>
-      </c>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56">
-        <v>0</v>
-      </c>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56">
-        <v>0</v>
-      </c>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56">
-        <v>0</v>
-      </c>
-      <c r="O37" s="56"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53">
+        <v>0</v>
+      </c>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53">
+        <v>0</v>
+      </c>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53">
+        <v>0</v>
+      </c>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53">
+        <v>0</v>
+      </c>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53">
+        <v>0</v>
+      </c>
+      <c r="O37" s="53"/>
     </row>
     <row r="38" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="55">
+      <c r="A38" s="52">
         <v>19</v>
       </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="56">
-        <v>0</v>
-      </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56">
-        <v>0</v>
-      </c>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56">
-        <v>0</v>
-      </c>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56">
-        <v>0</v>
-      </c>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56">
+      <c r="B38" s="52"/>
+      <c r="C38" s="53">
+        <v>0</v>
+      </c>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53">
+        <v>0</v>
+      </c>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53">
+        <v>0</v>
+      </c>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53">
+        <v>0</v>
+      </c>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53">
         <v>1</v>
       </c>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56">
-        <v>0</v>
-      </c>
-      <c r="O38" s="56"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53">
+        <v>0</v>
+      </c>
+      <c r="O38" s="53"/>
     </row>
     <row r="39" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="55">
+      <c r="A39" s="52">
         <v>20</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="56">
-        <v>0</v>
-      </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56">
-        <v>0</v>
-      </c>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56">
-        <v>0</v>
-      </c>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56">
-        <v>0</v>
-      </c>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56">
+      <c r="B39" s="52"/>
+      <c r="C39" s="53">
+        <v>0</v>
+      </c>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53">
+        <v>0</v>
+      </c>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53">
+        <v>0</v>
+      </c>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53">
+        <v>0</v>
+      </c>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53">
         <v>1</v>
       </c>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56">
-        <v>0</v>
-      </c>
-      <c r="O39" s="56"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="53">
+        <v>0</v>
+      </c>
+      <c r="O39" s="53"/>
     </row>
     <row r="40" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="55">
+      <c r="A40" s="52">
         <v>21</v>
       </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="56">
+      <c r="B40" s="52"/>
+      <c r="C40" s="53">
         <v>1</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56">
-        <v>0</v>
-      </c>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56">
-        <v>0</v>
-      </c>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56">
-        <v>0</v>
-      </c>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56">
-        <v>0</v>
-      </c>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56">
-        <v>0</v>
-      </c>
-      <c r="O40" s="56"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53">
+        <v>0</v>
+      </c>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53">
+        <v>0</v>
+      </c>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53">
+        <v>0</v>
+      </c>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53">
+        <v>0</v>
+      </c>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53">
+        <v>0</v>
+      </c>
+      <c r="O40" s="53"/>
     </row>
     <row r="41" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="55">
+      <c r="A41" s="52">
         <v>22</v>
       </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="56">
+      <c r="B41" s="52"/>
+      <c r="C41" s="53">
         <v>1</v>
       </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56">
-        <v>0</v>
-      </c>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56">
-        <v>0</v>
-      </c>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56">
-        <v>0</v>
-      </c>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56">
-        <v>0</v>
-      </c>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56">
-        <v>0</v>
-      </c>
-      <c r="O41" s="56"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53">
+        <v>0</v>
+      </c>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53">
+        <v>0</v>
+      </c>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53">
+        <v>0</v>
+      </c>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53">
+        <v>0</v>
+      </c>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53">
+        <v>0</v>
+      </c>
+      <c r="O41" s="53"/>
     </row>
     <row r="42" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="55">
+      <c r="A42" s="52">
         <v>23</v>
       </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="56">
+      <c r="B42" s="52"/>
+      <c r="C42" s="53">
         <v>1</v>
       </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56">
-        <v>0</v>
-      </c>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56">
-        <v>0</v>
-      </c>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56">
-        <v>0</v>
-      </c>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56">
-        <v>0</v>
-      </c>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56">
-        <v>0</v>
-      </c>
-      <c r="O42" s="56"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53">
+        <v>0</v>
+      </c>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53">
+        <v>0</v>
+      </c>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53">
+        <v>0</v>
+      </c>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53">
+        <v>0</v>
+      </c>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53">
+        <v>0</v>
+      </c>
+      <c r="O42" s="53"/>
     </row>
     <row r="43" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="55">
+      <c r="A43" s="52">
         <v>24</v>
       </c>
-      <c r="B43" s="55"/>
-      <c r="C43" s="56">
+      <c r="B43" s="52"/>
+      <c r="C43" s="53">
         <v>1</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56">
-        <v>0</v>
-      </c>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56">
-        <v>0</v>
-      </c>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56">
-        <v>0</v>
-      </c>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56">
-        <v>0</v>
-      </c>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56">
-        <v>0</v>
-      </c>
-      <c r="O43" s="56"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53">
+        <v>0</v>
+      </c>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53">
+        <v>0</v>
+      </c>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53">
+        <v>0</v>
+      </c>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53">
+        <v>0</v>
+      </c>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53">
+        <v>0</v>
+      </c>
+      <c r="O43" s="53"/>
     </row>
     <row r="44" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="55">
+      <c r="A44" s="52">
         <v>25</v>
       </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="56">
+      <c r="B44" s="52"/>
+      <c r="C44" s="53">
         <v>1</v>
       </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56">
-        <v>0</v>
-      </c>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56">
-        <v>0</v>
-      </c>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56">
-        <v>0</v>
-      </c>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56">
-        <v>0</v>
-      </c>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56">
-        <v>0</v>
-      </c>
-      <c r="O44" s="56"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53">
+        <v>0</v>
+      </c>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53">
+        <v>0</v>
+      </c>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53">
+        <v>0</v>
+      </c>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53">
+        <v>0</v>
+      </c>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53">
+        <v>0</v>
+      </c>
+      <c r="O44" s="53"/>
     </row>
     <row r="45" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="55">
+      <c r="A45" s="52">
         <v>26</v>
       </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="56">
-        <v>0</v>
-      </c>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56">
-        <v>0</v>
-      </c>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56">
-        <v>0</v>
-      </c>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56">
-        <v>0</v>
-      </c>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56">
+      <c r="B45" s="52"/>
+      <c r="C45" s="53">
+        <v>0</v>
+      </c>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53">
+        <v>0</v>
+      </c>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53">
+        <v>0</v>
+      </c>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53">
+        <v>0</v>
+      </c>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53">
         <v>1</v>
       </c>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56">
-        <v>0</v>
-      </c>
-      <c r="O45" s="56"/>
+      <c r="M45" s="53"/>
+      <c r="N45" s="53">
+        <v>0</v>
+      </c>
+      <c r="O45" s="53"/>
     </row>
     <row r="46" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="55">
+      <c r="A46" s="52">
         <v>27</v>
       </c>
-      <c r="B46" s="55"/>
-      <c r="C46" s="56">
-        <v>0</v>
-      </c>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56">
-        <v>0</v>
-      </c>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56">
-        <v>0</v>
-      </c>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56">
-        <v>0</v>
-      </c>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56">
+      <c r="B46" s="52"/>
+      <c r="C46" s="53">
+        <v>0</v>
+      </c>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53">
+        <v>0</v>
+      </c>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53">
+        <v>0</v>
+      </c>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53">
+        <v>0</v>
+      </c>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53">
         <v>1</v>
       </c>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56">
-        <v>0</v>
-      </c>
-      <c r="O46" s="56"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="53">
+        <v>0</v>
+      </c>
+      <c r="O46" s="53"/>
     </row>
     <row r="47" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="55">
+      <c r="A47" s="52">
         <v>28</v>
       </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="56">
+      <c r="B47" s="52"/>
+      <c r="C47" s="53">
         <v>1</v>
       </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56">
-        <v>0</v>
-      </c>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56">
-        <v>0</v>
-      </c>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56">
-        <v>0</v>
-      </c>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56">
-        <v>0</v>
-      </c>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56">
-        <v>0</v>
-      </c>
-      <c r="O47" s="56"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53">
+        <v>0</v>
+      </c>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53">
+        <v>0</v>
+      </c>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53">
+        <v>0</v>
+      </c>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53">
+        <v>0</v>
+      </c>
+      <c r="M47" s="53"/>
+      <c r="N47" s="53">
+        <v>0</v>
+      </c>
+      <c r="O47" s="53"/>
     </row>
     <row r="48" ht="12" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="55">
+      <c r="A48" s="52">
         <v>29</v>
       </c>
-      <c r="B48" s="55"/>
-      <c r="C48" s="56">
+      <c r="B48" s="52"/>
+      <c r="C48" s="53">
         <v>1</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56">
-        <v>0</v>
-      </c>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56">
-        <v>0</v>
-      </c>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56">
-        <v>0</v>
-      </c>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56">
-        <v>0</v>
-      </c>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56">
-        <v>0</v>
-      </c>
-      <c r="O48" s="56"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53">
+        <v>0</v>
+      </c>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53">
+        <v>0</v>
+      </c>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53">
+        <v>0</v>
+      </c>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53">
+        <v>0</v>
+      </c>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53">
+        <v>0</v>
+      </c>
+      <c r="O48" s="53"/>
     </row>
     <row r="49" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="55">
+      <c r="A49" s="52">
         <v>30</v>
       </c>
-      <c r="B49" s="55"/>
-      <c r="C49" s="56">
+      <c r="B49" s="52"/>
+      <c r="C49" s="53">
         <v>1</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56">
-        <v>0</v>
-      </c>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56">
-        <v>0</v>
-      </c>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56">
-        <v>0</v>
-      </c>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56">
-        <v>0</v>
-      </c>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56">
-        <v>0</v>
-      </c>
-      <c r="O49" s="56"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53">
+        <v>0</v>
+      </c>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53">
+        <v>0</v>
+      </c>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53">
+        <v>0</v>
+      </c>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53">
+        <v>0</v>
+      </c>
+      <c r="M49" s="53"/>
+      <c r="N49" s="53">
+        <v>0</v>
+      </c>
+      <c r="O49" s="53"/>
     </row>
     <row r="50" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="55">
+      <c r="A50" s="52">
         <v>31</v>
       </c>
-      <c r="B50" s="55"/>
-      <c r="C50" s="56">
+      <c r="B50" s="52"/>
+      <c r="C50" s="53">
         <v>1</v>
       </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56">
-        <v>0</v>
-      </c>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="57">
-        <v>0</v>
-      </c>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57">
-        <v>0</v>
-      </c>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57">
-        <v>0</v>
-      </c>
-      <c r="M50" s="57"/>
-      <c r="N50" s="57">
-        <v>0</v>
-      </c>
-      <c r="O50" s="57"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53">
+        <v>0</v>
+      </c>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="54">
+        <v>0</v>
+      </c>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54">
+        <v>0</v>
+      </c>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54">
+        <v>0</v>
+      </c>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54">
+        <v>0</v>
+      </c>
+      <c r="O50" s="54"/>
     </row>
     <row r="51" ht="21.75" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="59"/>
-      <c r="C51" s="56">
+      <c r="B51" s="56"/>
+      <c r="C51" s="53">
         <v>19</v>
       </c>
-      <c r="D51" s="55"/>
-      <c r="E51" s="56">
+      <c r="D51" s="52"/>
+      <c r="E51" s="53">
         <f>SUM(E20:G50)</f>
         <v>0</v>
       </c>
-      <c r="F51" s="55"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="61"/>
-      <c r="M51" s="61"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="62"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="58"/>
+      <c r="M51" s="58"/>
+      <c r="N51" s="58"/>
+      <c r="O51" s="59"/>
     </row>
     <row r="52" ht="12.75" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="63" t="s">
+      <c r="A52" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="66">
-        <v>0</v>
-      </c>
-      <c r="F52" s="67"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="70"/>
-      <c r="N52" s="70"/>
-      <c r="O52" s="71"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="63">
+        <v>0</v>
+      </c>
+      <c r="F52" s="64"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="67"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="67"/>
+      <c r="O52" s="68"/>
     </row>
     <row r="53" ht="12.75" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="72"/>
-      <c r="B53" s="73"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="79"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="79"/>
-      <c r="M53" s="79"/>
-      <c r="N53" s="79"/>
-      <c r="O53" s="80"/>
-    </row>
-    <row r="54" ht="15.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="81" t="s">
+      <c r="A53" s="69"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="76"/>
+      <c r="O53" s="77"/>
+    </row>
+    <row r="54" ht="15.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="82"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="83"/>
-      <c r="F54" s="84" t="s">
+      <c r="B54" s="79"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="80"/>
+      <c r="F54" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
-      <c r="M54" s="85"/>
-      <c r="N54" s="85"/>
-      <c r="O54" s="86"/>
-    </row>
-    <row r="55" ht="15.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="87" t="s">
+      <c r="G54" s="82"/>
+      <c r="H54" s="82"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="82"/>
+      <c r="L54" s="82"/>
+      <c r="M54" s="82"/>
+      <c r="N54" s="82"/>
+      <c r="O54" s="83"/>
+    </row>
+    <row r="55" ht="15.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="89"/>
-      <c r="F55" s="90" t="s">
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="86"/>
+      <c r="F55" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="G55" s="90"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="90"/>
-      <c r="J55" s="90"/>
-      <c r="K55" s="90"/>
-      <c r="L55" s="90"/>
-      <c r="M55" s="90"/>
-      <c r="N55" s="90"/>
-      <c r="O55" s="91"/>
-    </row>
-    <row r="56" ht="15.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="87"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="89"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="90"/>
-      <c r="H56" s="90"/>
-      <c r="I56" s="90"/>
-      <c r="J56" s="90"/>
-      <c r="K56" s="90"/>
-      <c r="L56" s="90"/>
-      <c r="M56" s="90"/>
-      <c r="N56" s="90"/>
-      <c r="O56" s="91"/>
-    </row>
-    <row r="57" ht="15.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="92"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="89"/>
-      <c r="F57" s="84" t="s">
+      <c r="G55" s="87"/>
+      <c r="H55" s="87"/>
+      <c r="I55" s="87"/>
+      <c r="J55" s="87"/>
+      <c r="K55" s="87"/>
+      <c r="L55" s="87"/>
+      <c r="M55" s="87"/>
+      <c r="N55" s="87"/>
+      <c r="O55" s="88"/>
+    </row>
+    <row r="56" ht="15.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="84"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="86"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="87"/>
+      <c r="L56" s="87"/>
+      <c r="M56" s="87"/>
+      <c r="N56" s="87"/>
+      <c r="O56" s="88"/>
+    </row>
+    <row r="57" ht="15.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="89"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="86"/>
+      <c r="F57" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="85"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="85"/>
-      <c r="M57" s="85"/>
-      <c r="N57" s="85"/>
-      <c r="O57" s="86"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="93" t="s">
+      <c r="G57" s="82"/>
+      <c r="H57" s="82"/>
+      <c r="I57" s="82"/>
+      <c r="J57" s="82"/>
+      <c r="K57" s="82"/>
+      <c r="L57" s="82"/>
+      <c r="M57" s="82"/>
+      <c r="N57" s="82"/>
+      <c r="O57" s="83"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="94"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="96">
-        <v>0</v>
-      </c>
-      <c r="F58" s="97"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="97"/>
-      <c r="I58" s="97"/>
-      <c r="J58" s="97"/>
-      <c r="K58" s="97"/>
-      <c r="L58" s="97"/>
-      <c r="M58" s="97"/>
-      <c r="N58" s="97"/>
-      <c r="O58" s="98"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="99"/>
-      <c r="B59" s="100"/>
-      <c r="C59" s="100"/>
-      <c r="D59" s="101"/>
-      <c r="E59" s="102"/>
-      <c r="F59" s="103"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="103"/>
-      <c r="I59" s="103"/>
-      <c r="J59" s="103"/>
-      <c r="K59" s="103"/>
-      <c r="L59" s="103"/>
-      <c r="M59" s="103"/>
-      <c r="N59" s="103"/>
-      <c r="O59" s="104"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="93">
+        <v>0</v>
+      </c>
+      <c r="F58" s="94"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="94"/>
+      <c r="I58" s="94"/>
+      <c r="J58" s="94"/>
+      <c r="K58" s="94"/>
+      <c r="L58" s="94"/>
+      <c r="M58" s="94"/>
+      <c r="N58" s="94"/>
+      <c r="O58" s="95"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="96"/>
+      <c r="B59" s="97"/>
+      <c r="C59" s="97"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="100"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="100"/>
+      <c r="I59" s="100"/>
+      <c r="J59" s="100"/>
+      <c r="K59" s="100"/>
+      <c r="L59" s="100"/>
+      <c r="M59" s="100"/>
+      <c r="N59" s="100"/>
+      <c r="O59" s="101"/>
     </row>
     <row r="60" ht="15.75" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
@@ -2840,234 +2825,234 @@
       <c r="A61" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="105"/>
-      <c r="C61" s="105"/>
-      <c r="D61" s="106"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="102"/>
+      <c r="D61" s="103"/>
       <c r="E61" s="10"/>
-      <c r="F61" s="105"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="105"/>
-      <c r="I61" s="105"/>
-      <c r="J61" s="105"/>
-      <c r="K61" s="105"/>
-      <c r="L61" s="105"/>
-      <c r="M61" s="105"/>
-      <c r="N61" s="105"/>
-      <c r="O61" s="106"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="102"/>
+      <c r="I61" s="102"/>
+      <c r="J61" s="102"/>
+      <c r="K61" s="102"/>
+      <c r="L61" s="102"/>
+      <c r="M61" s="102"/>
+      <c r="N61" s="102"/>
+      <c r="O61" s="103"/>
     </row>
     <row r="62" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="107" t="s">
+      <c r="A62" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="B62" s="108" t="s">
+      <c r="B62" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="109"/>
-      <c r="D62" s="109"/>
-      <c r="E62" s="109"/>
-      <c r="F62" s="109"/>
-      <c r="G62" s="109"/>
-      <c r="H62" s="109"/>
-      <c r="I62" s="109"/>
-      <c r="J62" s="109"/>
-      <c r="K62" s="109"/>
-      <c r="L62" s="109"/>
-      <c r="M62" s="109"/>
-      <c r="N62" s="109"/>
-      <c r="O62" s="110"/>
+      <c r="C62" s="106"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="106"/>
+      <c r="I62" s="106"/>
+      <c r="J62" s="106"/>
+      <c r="K62" s="106"/>
+      <c r="L62" s="106"/>
+      <c r="M62" s="106"/>
+      <c r="N62" s="106"/>
+      <c r="O62" s="107"/>
     </row>
     <row r="63" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="87" t="s">
+      <c r="A63" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="111" t="s">
+      <c r="B63" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="112"/>
-      <c r="D63" s="112"/>
-      <c r="E63" s="112"/>
-      <c r="F63" s="112"/>
-      <c r="G63" s="112"/>
-      <c r="H63" s="112"/>
-      <c r="I63" s="112"/>
-      <c r="J63" s="112"/>
-      <c r="K63" s="112"/>
-      <c r="L63" s="112"/>
-      <c r="M63" s="112"/>
-      <c r="N63" s="112"/>
-      <c r="O63" s="113"/>
+      <c r="C63" s="109"/>
+      <c r="D63" s="109"/>
+      <c r="E63" s="109"/>
+      <c r="F63" s="109"/>
+      <c r="G63" s="109"/>
+      <c r="H63" s="109"/>
+      <c r="I63" s="109"/>
+      <c r="J63" s="109"/>
+      <c r="K63" s="109"/>
+      <c r="L63" s="109"/>
+      <c r="M63" s="109"/>
+      <c r="N63" s="109"/>
+      <c r="O63" s="110"/>
     </row>
     <row r="64" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="87"/>
-      <c r="B64" s="112"/>
-      <c r="C64" s="112"/>
-      <c r="D64" s="112"/>
-      <c r="E64" s="112"/>
-      <c r="F64" s="112"/>
-      <c r="G64" s="112"/>
-      <c r="H64" s="112"/>
-      <c r="I64" s="112"/>
-      <c r="J64" s="112"/>
-      <c r="K64" s="112"/>
-      <c r="L64" s="112"/>
-      <c r="M64" s="112"/>
-      <c r="N64" s="112"/>
-      <c r="O64" s="113"/>
+      <c r="A64" s="84"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="109"/>
+      <c r="J64" s="109"/>
+      <c r="K64" s="109"/>
+      <c r="L64" s="109"/>
+      <c r="M64" s="109"/>
+      <c r="N64" s="109"/>
+      <c r="O64" s="110"/>
     </row>
     <row r="65" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="114"/>
-      <c r="B65" s="112"/>
-      <c r="C65" s="112"/>
-      <c r="D65" s="112"/>
-      <c r="E65" s="112"/>
-      <c r="F65" s="112"/>
-      <c r="G65" s="112"/>
-      <c r="H65" s="112"/>
-      <c r="I65" s="112"/>
-      <c r="J65" s="112"/>
-      <c r="K65" s="112"/>
-      <c r="L65" s="112"/>
-      <c r="M65" s="112"/>
-      <c r="N65" s="112"/>
-      <c r="O65" s="113"/>
+      <c r="A65" s="111"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="109"/>
+      <c r="D65" s="109"/>
+      <c r="E65" s="109"/>
+      <c r="F65" s="109"/>
+      <c r="G65" s="109"/>
+      <c r="H65" s="109"/>
+      <c r="I65" s="109"/>
+      <c r="J65" s="109"/>
+      <c r="K65" s="109"/>
+      <c r="L65" s="109"/>
+      <c r="M65" s="109"/>
+      <c r="N65" s="109"/>
+      <c r="O65" s="110"/>
     </row>
     <row r="66" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="87" t="s">
+      <c r="A66" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="115" t="s">
+      <c r="B66" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="115"/>
-      <c r="D66" s="115"/>
-      <c r="E66" s="115"/>
-      <c r="F66" s="115"/>
-      <c r="G66" s="115"/>
-      <c r="H66" s="115"/>
-      <c r="I66" s="115"/>
-      <c r="J66" s="115"/>
-      <c r="K66" s="115"/>
-      <c r="L66" s="115"/>
-      <c r="M66" s="115"/>
-      <c r="N66" s="115"/>
-      <c r="O66" s="116"/>
-    </row>
-    <row r="67" ht="12.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="87" t="s">
+      <c r="C66" s="112"/>
+      <c r="D66" s="112"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="112"/>
+      <c r="G66" s="112"/>
+      <c r="H66" s="112"/>
+      <c r="I66" s="112"/>
+      <c r="J66" s="112"/>
+      <c r="K66" s="112"/>
+      <c r="L66" s="112"/>
+      <c r="M66" s="112"/>
+      <c r="N66" s="112"/>
+      <c r="O66" s="113"/>
+    </row>
+    <row r="67" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="111" t="s">
+      <c r="B67" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="111"/>
-      <c r="D67" s="111"/>
-      <c r="E67" s="111"/>
-      <c r="F67" s="111"/>
-      <c r="G67" s="111"/>
-      <c r="H67" s="111"/>
-      <c r="I67" s="111"/>
-      <c r="J67" s="111"/>
-      <c r="K67" s="111"/>
-      <c r="L67" s="111"/>
-      <c r="M67" s="111"/>
-      <c r="N67" s="111"/>
-      <c r="O67" s="117"/>
-    </row>
-    <row r="68" ht="12.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="87"/>
-      <c r="B68" s="111"/>
-      <c r="C68" s="111"/>
-      <c r="D68" s="111"/>
-      <c r="E68" s="111"/>
-      <c r="F68" s="111"/>
-      <c r="G68" s="111"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="111"/>
-      <c r="J68" s="111"/>
-      <c r="K68" s="111"/>
-      <c r="L68" s="111"/>
-      <c r="M68" s="111"/>
-      <c r="N68" s="111"/>
-      <c r="O68" s="117"/>
-    </row>
-    <row r="69" ht="12.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="87" t="s">
+      <c r="C67" s="108"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="108"/>
+      <c r="G67" s="108"/>
+      <c r="H67" s="108"/>
+      <c r="I67" s="108"/>
+      <c r="J67" s="108"/>
+      <c r="K67" s="108"/>
+      <c r="L67" s="108"/>
+      <c r="M67" s="108"/>
+      <c r="N67" s="108"/>
+      <c r="O67" s="114"/>
+    </row>
+    <row r="68" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="84"/>
+      <c r="B68" s="108"/>
+      <c r="C68" s="108"/>
+      <c r="D68" s="108"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="108"/>
+      <c r="H68" s="108"/>
+      <c r="I68" s="108"/>
+      <c r="J68" s="108"/>
+      <c r="K68" s="108"/>
+      <c r="L68" s="108"/>
+      <c r="M68" s="108"/>
+      <c r="N68" s="108"/>
+      <c r="O68" s="114"/>
+    </row>
+    <row r="69" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="118" t="s">
+      <c r="B69" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="119"/>
-      <c r="D69" s="119"/>
-      <c r="E69" s="119"/>
-      <c r="F69" s="119"/>
-      <c r="G69" s="119"/>
-      <c r="H69" s="119"/>
-      <c r="I69" s="119"/>
-      <c r="J69" s="119"/>
-      <c r="K69" s="119"/>
-      <c r="L69" s="119"/>
-      <c r="M69" s="119"/>
-      <c r="N69" s="119"/>
-      <c r="O69" s="120"/>
-    </row>
-    <row r="70" ht="12.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="87" t="s">
+      <c r="C69" s="116"/>
+      <c r="D69" s="116"/>
+      <c r="E69" s="116"/>
+      <c r="F69" s="116"/>
+      <c r="G69" s="116"/>
+      <c r="H69" s="116"/>
+      <c r="I69" s="116"/>
+      <c r="J69" s="116"/>
+      <c r="K69" s="116"/>
+      <c r="L69" s="116"/>
+      <c r="M69" s="116"/>
+      <c r="N69" s="116"/>
+      <c r="O69" s="117"/>
+    </row>
+    <row r="70" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B70" s="121" t="s">
+      <c r="B70" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="121"/>
-      <c r="D70" s="121"/>
-      <c r="E70" s="121"/>
-      <c r="F70" s="121"/>
-      <c r="G70" s="121"/>
-      <c r="H70" s="121"/>
-      <c r="I70" s="121"/>
-      <c r="J70" s="121"/>
-      <c r="K70" s="121"/>
-      <c r="L70" s="121"/>
-      <c r="M70" s="121"/>
-      <c r="N70" s="121"/>
-      <c r="O70" s="122"/>
-    </row>
-    <row r="71" ht="12.95" customHeight="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="87"/>
-      <c r="B71" s="121"/>
-      <c r="C71" s="121"/>
-      <c r="D71" s="121"/>
-      <c r="E71" s="121"/>
-      <c r="F71" s="121"/>
-      <c r="G71" s="121"/>
-      <c r="H71" s="121"/>
-      <c r="I71" s="121"/>
-      <c r="J71" s="121"/>
-      <c r="K71" s="121"/>
-      <c r="L71" s="121"/>
-      <c r="M71" s="121"/>
-      <c r="N71" s="121"/>
-      <c r="O71" s="122"/>
+      <c r="C70" s="118"/>
+      <c r="D70" s="118"/>
+      <c r="E70" s="118"/>
+      <c r="F70" s="118"/>
+      <c r="G70" s="118"/>
+      <c r="H70" s="118"/>
+      <c r="I70" s="118"/>
+      <c r="J70" s="118"/>
+      <c r="K70" s="118"/>
+      <c r="L70" s="118"/>
+      <c r="M70" s="118"/>
+      <c r="N70" s="118"/>
+      <c r="O70" s="119"/>
+    </row>
+    <row r="71" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="84"/>
+      <c r="B71" s="118"/>
+      <c r="C71" s="118"/>
+      <c r="D71" s="118"/>
+      <c r="E71" s="118"/>
+      <c r="F71" s="118"/>
+      <c r="G71" s="118"/>
+      <c r="H71" s="118"/>
+      <c r="I71" s="118"/>
+      <c r="J71" s="118"/>
+      <c r="K71" s="118"/>
+      <c r="L71" s="118"/>
+      <c r="M71" s="118"/>
+      <c r="N71" s="118"/>
+      <c r="O71" s="119"/>
     </row>
     <row r="72" ht="12.95" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="123"/>
-      <c r="B72" s="124"/>
-      <c r="C72" s="124"/>
-      <c r="D72" s="124"/>
-      <c r="E72" s="124"/>
-      <c r="F72" s="124"/>
-      <c r="G72" s="124"/>
-      <c r="H72" s="124"/>
-      <c r="I72" s="124"/>
-      <c r="J72" s="124"/>
-      <c r="K72" s="124"/>
-      <c r="L72" s="124"/>
-      <c r="M72" s="124"/>
-      <c r="N72" s="124"/>
-      <c r="O72" s="125"/>
-    </row>
-    <row r="74" ht="12.95" customHeight="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="126" t="s">
+      <c r="A72" s="120"/>
+      <c r="B72" s="121"/>
+      <c r="C72" s="121"/>
+      <c r="D72" s="121"/>
+      <c r="E72" s="121"/>
+      <c r="F72" s="121"/>
+      <c r="G72" s="121"/>
+      <c r="H72" s="121"/>
+      <c r="I72" s="121"/>
+      <c r="J72" s="121"/>
+      <c r="K72" s="121"/>
+      <c r="L72" s="121"/>
+      <c r="M72" s="121"/>
+      <c r="N72" s="121"/>
+      <c r="O72" s="122"/>
+    </row>
+    <row r="74" ht="12.95" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="123" t="s">
         <v>64</v>
       </c>
     </row>
